--- a/Assets/100_Data/XlsxFiles/Item_Data.xlsx
+++ b/Assets/100_Data/XlsxFiles/Item_Data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Coding\Drill_Game\Assets\100_Data\CSVData\XlsxFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Coding\Drill_Game\Assets\100_Data\XlsxFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,6 +67,98 @@
   </si>
   <si>
     <t>금 자재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stone_Material</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stone_Resource</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Copper_Material</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Copper_Resource</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iron_Material</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iron_Resource</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gold_Material</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gold_Resource</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EngineId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resource</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GreenEngine_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GreenEngine_2</t>
+  </si>
+  <si>
+    <t>GreenEngine_3</t>
+  </si>
+  <si>
+    <t>RedEngine_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RedEngine_2</t>
+  </si>
+  <si>
+    <t>RedEngine_3</t>
+  </si>
+  <si>
+    <t>초록 엔진 Lv.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초록 엔진 Lv.2</t>
+  </si>
+  <si>
+    <t>초록 엔진 Lv.3</t>
+  </si>
+  <si>
+    <t>빨강 엔진 Lv.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빨강 엔진 Lv.2</t>
+  </si>
+  <si>
+    <t>빨강 엔진 Lv.3</t>
+  </si>
+  <si>
+    <t>Engine</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -135,11 +227,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A1:C9" totalsRowShown="0">
-  <autoFilter ref="A1:C9"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A1:F15" totalsRowShown="0">
+  <autoFilter ref="A1:F15"/>
+  <tableColumns count="6">
     <tableColumn id="1" name="Id"/>
+    <tableColumn id="4" name="Name"/>
     <tableColumn id="2" name="DisplayName"/>
+    <tableColumn id="5" name="ItemType"/>
+    <tableColumn id="6" name="EngineId"/>
     <tableColumn id="3" name="ItemIcon"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -409,91 +504,251 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="G9" sqref="G8:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="17.875" customWidth="1"/>
     <col min="3" max="3" width="18.125" customWidth="1"/>
+    <col min="4" max="5" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1001</v>
       </c>
       <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1002</v>
       </c>
       <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1003</v>
       </c>
       <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1004</v>
       </c>
       <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1005</v>
       </c>
       <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1006</v>
       </c>
       <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1007</v>
       </c>
       <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1008</v>
       </c>
       <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
         <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1101</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10">
+        <v>201001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1102</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11">
+        <v>201002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1103</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12">
+        <v>201003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1104</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13">
+        <v>202001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1105</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14">
+        <v>202002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>1106</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15">
+        <v>202003</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/100_Data/XlsxFiles/Item_Data.xlsx
+++ b/Assets/100_Data/XlsxFiles/Item_Data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="39">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -159,6 +159,18 @@
   </si>
   <si>
     <t>Engine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ironIngot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>engine_test</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -507,7 +519,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G8:G9"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -515,6 +527,7 @@
     <col min="2" max="2" width="17.875" customWidth="1"/>
     <col min="3" max="3" width="18.125" customWidth="1"/>
     <col min="4" max="5" width="17.875" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -550,6 +563,9 @@
       <c r="D2" t="s">
         <v>22</v>
       </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -564,6 +580,9 @@
       <c r="D3" t="s">
         <v>22</v>
       </c>
+      <c r="F3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -578,6 +597,9 @@
       <c r="D4" t="s">
         <v>22</v>
       </c>
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -592,6 +614,9 @@
       <c r="D5" t="s">
         <v>22</v>
       </c>
+      <c r="F5" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -606,6 +631,9 @@
       <c r="D6" t="s">
         <v>22</v>
       </c>
+      <c r="F6" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -620,6 +648,9 @@
       <c r="D7" t="s">
         <v>22</v>
       </c>
+      <c r="F7" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -634,6 +665,9 @@
       <c r="D8" t="s">
         <v>22</v>
       </c>
+      <c r="F8" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -648,6 +682,9 @@
       <c r="D9" t="s">
         <v>22</v>
       </c>
+      <c r="F9" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -665,6 +702,9 @@
       <c r="E10">
         <v>201001</v>
       </c>
+      <c r="F10" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
@@ -682,6 +722,9 @@
       <c r="E11">
         <v>201002</v>
       </c>
+      <c r="F11" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
@@ -699,6 +742,9 @@
       <c r="E12">
         <v>201003</v>
       </c>
+      <c r="F12" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
@@ -716,6 +762,9 @@
       <c r="E13">
         <v>202001</v>
       </c>
+      <c r="F13" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
@@ -733,6 +782,9 @@
       <c r="E14">
         <v>202002</v>
       </c>
+      <c r="F14" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
@@ -749,6 +801,9 @@
       </c>
       <c r="E15">
         <v>202003</v>
+      </c>
+      <c r="F15" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
